--- a/men_diaries/Diary 11.xlsx
+++ b/men_diaries/Diary 11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t xml:space="preserve">(i) The motivations of females to use technology are more likely to be for what it helps them accomplish, whereas for males more likely to be for their interest and enjoyment of technology itself 
 </t>
@@ -110,11 +110,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I am already facing problems with disk space, before starting these tasks, I had 9 GB free, now it is just under 1.1 GB, I don’t know if I will have enough disk space!
-</t>
-  </si>
-  <si>
-    <t>It did not help, the error persisted, I will search about the problem.</t>
+    <t>I am already facing problems with disk space, before starting these tasks, I had 9 GB free, now it is just under 1.1 GB, I don’t know if I will have enough disk space!
+ It did not help, the error persisted, I will search about the problem.</t>
   </si>
   <si>
     <t xml:space="preserve">Well, since yesterday's strategy did not work, what I'm going to do now  is a make clean, to clean what I've compiled so far, and then redo the make, because I realized that I had executed make check instead of make.
@@ -229,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -239,6 +236,9 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -313,6 +313,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,14 +652,16 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -665,16 +670,14 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -865,7 +868,9 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -881,10 +886,10 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -900,9 +905,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -933,7 +936,9 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -949,10 +954,8 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -967,8 +970,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -985,7 +990,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="7" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -996,15 +1001,13 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1065,7 +1068,9 @@
         <v>50</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1081,11 +1086,11 @@
         <v>51</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1095,15 +1100,11 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -14454,20 +14455,6 @@
       <c r="K999" s="1"/>
       <c r="L999" s="1"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
